--- a/data/02_people_vs_ml.xlsx
+++ b/data/02_people_vs_ml.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Documents/movie_poster_neural_network/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3BB4122-58BB-934A-87B7-1939AC3CB159}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EC9227-FF74-5649-90FA-4747E6AF6A08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32880" yWindow="1120" windowWidth="17360" windowHeight="17660" xr2:uid="{111C9CEF-BBE5-DA49-AEEF-968CAC6B89D7}"/>
+    <workbookView xWindow="47360" yWindow="460" windowWidth="19700" windowHeight="20980" xr2:uid="{111C9CEF-BBE5-DA49-AEEF-968CAC6B89D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,53 +33,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t xml:space="preserve">person </t>
   </si>
   <si>
-    <t>movie 1 guess(es)</t>
-  </si>
-  <si>
-    <t>movie 2 guess(es)</t>
-  </si>
-  <si>
-    <t>movie 3 guess(es)</t>
-  </si>
-  <si>
-    <t>movie 4 guess(es)</t>
-  </si>
-  <si>
-    <t>movie 5 guess(es)</t>
-  </si>
-  <si>
-    <t>movie 6 guess(es)</t>
-  </si>
-  <si>
-    <t>movie 7 guess(es)</t>
-  </si>
-  <si>
-    <t>movie 8 guess(es)</t>
-  </si>
-  <si>
-    <t>Comedy Romance</t>
-  </si>
-  <si>
     <t>Comedy</t>
   </si>
   <si>
-    <t>Comedy Family</t>
-  </si>
-  <si>
-    <t>Romance Comedy</t>
-  </si>
-  <si>
-    <t>Romance Drama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romance Comedy </t>
-  </si>
-  <si>
     <t>Matt</t>
   </si>
   <si>
@@ -89,65 +50,147 @@
     <t>Tyson</t>
   </si>
   <si>
-    <t>Drama Romance</t>
-  </si>
-  <si>
-    <t>Family Romance</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lyan </t>
   </si>
   <si>
-    <t>Comedy Drama</t>
-  </si>
-  <si>
-    <t>Drama Romance Family</t>
-  </si>
-  <si>
-    <t>Comedy Family Romance</t>
-  </si>
-  <si>
     <t>Comedy, Family, Drama</t>
   </si>
   <si>
-    <t>Romance Comedy Drama</t>
-  </si>
-  <si>
     <t>Family</t>
   </si>
   <si>
-    <t>Comdey Romance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family Comedy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romance Fantasy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romantic Comedy </t>
-  </si>
-  <si>
-    <t>Family Comedy Romance</t>
-  </si>
-  <si>
-    <t>romance Comedy</t>
-  </si>
-  <si>
-    <t>Drama Romance comedy</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mom &amp; Dad </t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Pretty Woman (1990)</t>
+  </si>
+  <si>
+    <t>My Girl (1991)</t>
+  </si>
+  <si>
+    <t>Bride Wars (2009)</t>
+  </si>
+  <si>
+    <t>Four Christmases (2008)</t>
+  </si>
+  <si>
+    <t>Ghosts of Girlfriends Past (2009)</t>
+  </si>
+  <si>
+    <t>Intolerable Cruelty (2003)</t>
+  </si>
+  <si>
+    <t>Night School (2018)</t>
+  </si>
+  <si>
+    <t>The Ugly Truth (2009)</t>
+  </si>
+  <si>
+    <t>Drama, Comedy, Romance</t>
+  </si>
+  <si>
+    <t>Drama, Comedy, Action</t>
+  </si>
+  <si>
+    <t>Drama, Comedy, Crime</t>
+  </si>
+  <si>
+    <t>Drama, Horror, Comedy</t>
+  </si>
+  <si>
+    <t>Comedy, Action, Romance</t>
+  </si>
+  <si>
+    <t>Drama, Action, Comedy, Romance</t>
+  </si>
+  <si>
+    <t>Drama,  Action,  Comedy</t>
+  </si>
+  <si>
+    <t>Romance, Comedy</t>
+  </si>
+  <si>
+    <t>Comdey, Romance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family, Comedy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romance, Fantasy </t>
+  </si>
+  <si>
+    <t>Drama, Romance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romantic, Comedy </t>
+  </si>
+  <si>
+    <t>Comedy, Drama</t>
+  </si>
+  <si>
+    <t>Drama, Romance, Family</t>
+  </si>
+  <si>
+    <t>Comedy, Family, Romance</t>
+  </si>
+  <si>
+    <t>Romance, Drama</t>
+  </si>
+  <si>
+    <t>Romance, Comedy, Drama</t>
+  </si>
+  <si>
+    <t>Family, Romance</t>
+  </si>
+  <si>
+    <t>Comedy, Romance</t>
+  </si>
+  <si>
+    <t>Family, Comedy, Romance</t>
+  </si>
+  <si>
+    <t>Drama, Romance, Comedy</t>
+  </si>
+  <si>
+    <t>Comedy, Family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romance, Comedy </t>
+  </si>
+  <si>
+    <t>True Label</t>
+  </si>
+  <si>
+    <t>Comedy, Drama, Romance</t>
+  </si>
+  <si>
+    <t>Comedy, Fantasy, Romance</t>
+  </si>
+  <si>
+    <t>Comedy, Crime, Romance</t>
+  </si>
+  <si>
+    <t>Comedy, Drama, Family</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,8 +216,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,192 +540,257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0BD669-DFA4-D04E-B437-27D7D576DEFB}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" t="s">
-        <v>9</v>
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>30</v>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/02_people_vs_ml.xlsx
+++ b/data/02_people_vs_ml.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Documents/movie_poster_neural_network/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EC9227-FF74-5649-90FA-4747E6AF6A08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA541B4-4E50-F34F-8ED6-3FAADBFD1B3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47360" yWindow="460" windowWidth="19700" windowHeight="20980" xr2:uid="{111C9CEF-BBE5-DA49-AEEF-968CAC6B89D7}"/>
+    <workbookView xWindow="45100" yWindow="460" windowWidth="19700" windowHeight="8340" xr2:uid="{111C9CEF-BBE5-DA49-AEEF-968CAC6B89D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -196,12 +196,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -216,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -226,6 +232,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,7 +554,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B7" sqref="B7"/>
+      <selection pane="topRight" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -615,119 +625,119 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="7" t="s">
         <v>30</v>
       </c>
     </row>
